--- a/metrics/metricsOSVM.xlsx
+++ b/metrics/metricsOSVM.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5328947368421053</v>
+        <v>0.5526315789473685</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0.5783582089552238</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4320000000000001</v>
+        <v>0.4769230769230769</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3375</v>
+        <v>0.4057591623036649</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.4451847076416</v>
+        <v>505.6701173782349</v>
       </c>
     </row>
   </sheetData>
